--- a/glider configs.xlsx
+++ b/glider configs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\graya\MATLAB\Projects\passive-acoustics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00DF54B3-B8D1-4BBF-A61F-20EEEB42C689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11001D93-15AD-46F1-8C6A-33A9E624B1B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10886" yWindow="0" windowWidth="11143" windowHeight="13080" xr2:uid="{73F96521-B66E-42DE-8A73-C7B86FFA82AB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{73F96521-B66E-42DE-8A73-C7B86FFA82AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>start date</t>
   </si>
@@ -75,6 +75,21 @@
   </si>
   <si>
     <t>Slack</t>
+  </si>
+  <si>
+    <t>audio data</t>
+  </si>
+  <si>
+    <t>dbd binary</t>
+  </si>
+  <si>
+    <t>dbd ascii</t>
+  </si>
+  <si>
+    <t>dbd mat</t>
+  </si>
+  <si>
+    <t>time offset</t>
   </si>
 </sst>
 </file>
@@ -82,7 +97,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -122,10 +137,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -462,19 +476,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B08D63F9-9D0D-4B5F-B09C-95F4D61657FB}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="6" max="6" width="12.765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.61328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" customWidth="1"/>
+    <col min="3" max="3" width="18.08984375" customWidth="1"/>
+    <col min="6" max="6" width="17.7265625" customWidth="1"/>
+    <col min="7" max="7" width="36.08984375" customWidth="1"/>
+    <col min="8" max="8" width="13.54296875" customWidth="1"/>
+    <col min="9" max="9" width="14.1796875" customWidth="1"/>
+    <col min="10" max="10" width="13.08984375" customWidth="1"/>
+    <col min="11" max="11" width="13.36328125" customWidth="1"/>
+    <col min="12" max="12" width="15.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -496,8 +517,23 @@
       <c r="G1" t="s">
         <v>7</v>
       </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -507,18 +543,18 @@
       <c r="C2" s="1">
         <v>44964</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2">
         <f>C2-B2</f>
         <v>17</v>
       </c>
       <c r="E2">
         <v>150</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -528,18 +564,18 @@
       <c r="C3" s="1">
         <v>45329</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3">
         <f t="shared" ref="D3:D6" si="0">C3-B3</f>
         <v>27</v>
       </c>
       <c r="E3">
         <v>50</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -549,18 +585,18 @@
       <c r="C4" s="1">
         <v>45366</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="E4">
         <v>50</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -570,21 +606,21 @@
       <c r="C5" s="1">
         <v>45686</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="E5">
         <v>150</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -594,17 +630,17 @@
       <c r="C6" s="1">
         <v>45696</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="E6">
         <v>150</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
